--- a/modules/G/Final document weight and count.xlsx
+++ b/modules/G/Final document weight and count.xlsx
@@ -552,10 +552,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>31.75272172447578</v>
+        <v>127.0108868979071</v>
       </c>
       <c r="C2">
-        <v>1534</v>
+        <v>6136</v>
       </c>
       <c r="D2">
         <v>115</v>
@@ -564,13 +564,13 @@
         <v>2964</v>
       </c>
       <c r="F2">
-        <v>1419</v>
+        <v>6021</v>
       </c>
       <c r="G2">
-        <v>31.75272172447578</v>
+        <v>127.0108868979071</v>
       </c>
       <c r="H2">
-        <v>0.01045883940620783</v>
+        <v>0.04284750337381917</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -578,10 +578,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>-15.31153004641834</v>
+        <v>-61.24612018567306</v>
       </c>
       <c r="C3">
-        <v>183</v>
+        <v>732</v>
       </c>
       <c r="D3">
         <v>17</v>
@@ -590,13 +590,13 @@
         <v>420</v>
       </c>
       <c r="F3">
-        <v>166</v>
+        <v>715</v>
       </c>
       <c r="G3">
-        <v>-15.31153004641834</v>
+        <v>-61.24612018567306</v>
       </c>
       <c r="H3">
-        <v>-0.03571428571428571</v>
+        <v>-0.1452380952380952</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -604,10 +604,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-53.08546190525055</v>
+        <v>-212.3418476210031</v>
       </c>
       <c r="C4">
-        <v>976</v>
+        <v>3904</v>
       </c>
       <c r="D4">
         <v>138</v>
@@ -616,13 +616,13 @@
         <v>1876</v>
       </c>
       <c r="F4">
-        <v>838</v>
+        <v>3766</v>
       </c>
       <c r="G4">
-        <v>-53.08546190525055</v>
+        <v>-212.3418476210031</v>
       </c>
       <c r="H4">
-        <v>-0.02825159914712154</v>
+        <v>-0.1130063965884861</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -630,10 +630,10 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>-20.81476007907387</v>
+        <v>-83.25904031629506</v>
       </c>
       <c r="C5">
-        <v>361</v>
+        <v>1444</v>
       </c>
       <c r="D5">
         <v>35</v>
@@ -642,13 +642,13 @@
         <v>802</v>
       </c>
       <c r="F5">
-        <v>326</v>
+        <v>1409</v>
       </c>
       <c r="G5">
-        <v>-20.81476007907387</v>
+        <v>-83.25904031629506</v>
       </c>
       <c r="H5">
-        <v>-0.02493765586034913</v>
+        <v>-0.1034912718204489</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -656,10 +656,10 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>-95.4617377533832</v>
+        <v>-381.8469510135291</v>
       </c>
       <c r="C6">
-        <v>936</v>
+        <v>3744</v>
       </c>
       <c r="D6">
         <v>84</v>
@@ -668,13 +668,13 @@
         <v>2173</v>
       </c>
       <c r="F6">
-        <v>852</v>
+        <v>3660</v>
       </c>
       <c r="G6">
-        <v>-95.4617377533832</v>
+        <v>-381.8469510135291</v>
       </c>
       <c r="H6">
-        <v>-0.04371836171191901</v>
+        <v>-0.1753336401288541</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -682,10 +682,10 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>-56.74379483827924</v>
+        <v>-226.9751793531174</v>
       </c>
       <c r="C7">
-        <v>848</v>
+        <v>3392</v>
       </c>
       <c r="D7">
         <v>34</v>
@@ -694,13 +694,13 @@
         <v>1887</v>
       </c>
       <c r="F7">
-        <v>814</v>
+        <v>3358</v>
       </c>
       <c r="G7">
-        <v>-56.74379483827924</v>
+        <v>-226.9751793531174</v>
       </c>
       <c r="H7">
-        <v>-0.0296767355590885</v>
+        <v>-0.1197668256491786</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -708,10 +708,10 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>-39.22190392371704</v>
+        <v>-156.8876156948677</v>
       </c>
       <c r="C8">
-        <v>824</v>
+        <v>3296</v>
       </c>
       <c r="D8">
         <v>89</v>
@@ -720,13 +720,13 @@
         <v>1849</v>
       </c>
       <c r="F8">
-        <v>735</v>
+        <v>3207</v>
       </c>
       <c r="G8">
-        <v>-39.22190392371704</v>
+        <v>-156.8876156948677</v>
       </c>
       <c r="H8">
-        <v>-0.02109248242293131</v>
+        <v>-0.08436992969172526</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -734,10 +734,10 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>-20.58234184288479</v>
+        <v>-82.32936737153875</v>
       </c>
       <c r="C9">
-        <v>981</v>
+        <v>3924</v>
       </c>
       <c r="D9">
         <v>97</v>
@@ -746,13 +746,13 @@
         <v>2030</v>
       </c>
       <c r="F9">
-        <v>884</v>
+        <v>3827</v>
       </c>
       <c r="G9">
-        <v>-20.58234184288479</v>
+        <v>-82.32936737153875</v>
       </c>
       <c r="H9">
-        <v>-0.009852216748768473</v>
+        <v>-0.04039408866995074</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -760,10 +760,10 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>9.295487768645371</v>
+        <v>37.18195107458128</v>
       </c>
       <c r="C10">
-        <v>408</v>
+        <v>1632</v>
       </c>
       <c r="D10">
         <v>21</v>
@@ -772,13 +772,13 @@
         <v>980</v>
       </c>
       <c r="F10">
-        <v>387</v>
+        <v>1611</v>
       </c>
       <c r="G10">
-        <v>9.295487768645371</v>
+        <v>37.18195107458128</v>
       </c>
       <c r="H10">
-        <v>0.009183673469387756</v>
+        <v>0.03775510204081633</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -786,10 +786,10 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>-37.41568577156428</v>
+        <v>-149.662743086256</v>
       </c>
       <c r="C11">
-        <v>652</v>
+        <v>2608</v>
       </c>
       <c r="D11">
         <v>34</v>
@@ -798,13 +798,13 @@
         <v>1482</v>
       </c>
       <c r="F11">
-        <v>618</v>
+        <v>2574</v>
       </c>
       <c r="G11">
-        <v>-37.41568577156428</v>
+        <v>-149.662743086256</v>
       </c>
       <c r="H11">
-        <v>-0.02496626180836707</v>
+        <v>-0.1005398110661269</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -812,10 +812,10 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>-65.06157438938023</v>
+        <v>-260.2462975575222</v>
       </c>
       <c r="C12">
-        <v>461</v>
+        <v>1844</v>
       </c>
       <c r="D12">
         <v>20</v>
@@ -824,13 +824,13 @@
         <v>1015</v>
       </c>
       <c r="F12">
-        <v>441</v>
+        <v>1824</v>
       </c>
       <c r="G12">
-        <v>-65.06157438938023</v>
+        <v>-260.2462975575222</v>
       </c>
       <c r="H12">
-        <v>-0.06403940886699508</v>
+        <v>-0.2561576354679803</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -838,10 +838,10 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>-31.371975342209</v>
+        <v>-125.4879013688354</v>
       </c>
       <c r="C13">
-        <v>222</v>
+        <v>888</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -850,13 +850,13 @@
         <v>473</v>
       </c>
       <c r="F13">
-        <v>207</v>
+        <v>873</v>
       </c>
       <c r="G13">
-        <v>-31.371975342209</v>
+        <v>-125.4879013688354</v>
       </c>
       <c r="H13">
-        <v>-0.06553911205073996</v>
+        <v>-0.2642706131078224</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -864,10 +864,10 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>11.37234831784946</v>
+        <v>45.489393271398</v>
       </c>
       <c r="C14">
-        <v>366</v>
+        <v>1464</v>
       </c>
       <c r="D14">
         <v>20</v>
@@ -876,13 +876,13 @@
         <v>814</v>
       </c>
       <c r="F14">
-        <v>346</v>
+        <v>1444</v>
       </c>
       <c r="G14">
-        <v>11.37234831784946</v>
+        <v>45.489393271398</v>
       </c>
       <c r="H14">
-        <v>0.01351351351351351</v>
+        <v>0.05528255528255528</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -890,10 +890,10 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>-180.0147606267437</v>
+        <v>-720.0590425069661</v>
       </c>
       <c r="C15">
-        <v>1837</v>
+        <v>7348</v>
       </c>
       <c r="D15">
         <v>172</v>
@@ -902,13 +902,13 @@
         <v>4118</v>
       </c>
       <c r="F15">
-        <v>1665</v>
+        <v>7176</v>
       </c>
       <c r="G15">
-        <v>-180.0147606267437</v>
+        <v>-720.0590425069661</v>
       </c>
       <c r="H15">
-        <v>-0.04371053909664886</v>
+        <v>-0.1748421563865954</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -916,10 +916,10 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>11.92723838502822</v>
+        <v>47.70895354011265</v>
       </c>
       <c r="C16">
-        <v>640</v>
+        <v>2560</v>
       </c>
       <c r="D16">
         <v>41</v>
@@ -928,13 +928,13 @@
         <v>1366</v>
       </c>
       <c r="F16">
-        <v>599</v>
+        <v>2519</v>
       </c>
       <c r="G16">
-        <v>11.92723838502822</v>
+        <v>47.70895354011265</v>
       </c>
       <c r="H16">
-        <v>0.008052708638360176</v>
+        <v>0.03440702781844802</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -942,10 +942,10 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>-148.7439466281327</v>
+        <v>-594.9757865125223</v>
       </c>
       <c r="C17">
-        <v>974</v>
+        <v>3896</v>
       </c>
       <c r="D17">
         <v>51</v>
@@ -954,13 +954,13 @@
         <v>2059</v>
       </c>
       <c r="F17">
-        <v>923</v>
+        <v>3845</v>
       </c>
       <c r="G17">
-        <v>-148.7439466281327</v>
+        <v>-594.9757865125223</v>
       </c>
       <c r="H17">
-        <v>-0.07187955318115589</v>
+        <v>-0.2884895580378825</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -968,10 +968,10 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>-8.234868724745295</v>
+        <v>-32.93947489898112</v>
       </c>
       <c r="C18">
-        <v>244</v>
+        <v>976</v>
       </c>
       <c r="D18">
         <v>12</v>
@@ -980,13 +980,13 @@
         <v>488</v>
       </c>
       <c r="F18">
-        <v>232</v>
+        <v>964</v>
       </c>
       <c r="G18">
-        <v>-8.234868724745295</v>
+        <v>-32.93947489898112</v>
       </c>
       <c r="H18">
-        <v>-0.01639344262295082</v>
+        <v>-0.06557377049180328</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -994,10 +994,10 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>-112.7175853406481</v>
+        <v>-450.8703413625891</v>
       </c>
       <c r="C19">
-        <v>1159</v>
+        <v>4636</v>
       </c>
       <c r="D19">
         <v>86</v>
@@ -1006,13 +1006,13 @@
         <v>2418</v>
       </c>
       <c r="F19">
-        <v>1073</v>
+        <v>4550</v>
       </c>
       <c r="G19">
-        <v>-112.7175853406481</v>
+        <v>-450.8703413625891</v>
       </c>
       <c r="H19">
-        <v>-0.04631927212572374</v>
+        <v>-0.1861042183622829</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1020,10 +1020,10 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>-28.17825250185301</v>
+        <v>-112.7130100074113</v>
       </c>
       <c r="C20">
-        <v>297</v>
+        <v>1188</v>
       </c>
       <c r="D20">
         <v>27</v>
@@ -1032,13 +1032,13 @@
         <v>554</v>
       </c>
       <c r="F20">
-        <v>270</v>
+        <v>1161</v>
       </c>
       <c r="G20">
-        <v>-28.17825250185301</v>
+        <v>-112.7130100074113</v>
       </c>
       <c r="H20">
-        <v>-0.05054151624548736</v>
+        <v>-0.2021660649819494</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1046,10 +1046,10 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>-12.56574680623434</v>
+        <v>-50.26298722493762</v>
       </c>
       <c r="C21">
-        <v>563</v>
+        <v>2252</v>
       </c>
       <c r="D21">
         <v>23</v>
@@ -1058,13 +1058,13 @@
         <v>1348</v>
       </c>
       <c r="F21">
-        <v>540</v>
+        <v>2229</v>
       </c>
       <c r="G21">
-        <v>-12.56574680623434</v>
+        <v>-50.26298722493762</v>
       </c>
       <c r="H21">
-        <v>-0.008902077151335312</v>
+        <v>-0.0370919881305638</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1072,10 +1072,10 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>-27.39884451712869</v>
+        <v>-109.5953780685138</v>
       </c>
       <c r="C22">
-        <v>656</v>
+        <v>2624</v>
       </c>
       <c r="D22">
         <v>32</v>
@@ -1084,13 +1084,13 @@
         <v>1517</v>
       </c>
       <c r="F22">
-        <v>624</v>
+        <v>2592</v>
       </c>
       <c r="G22">
-        <v>-27.39884451712869</v>
+        <v>-109.5953780685138</v>
       </c>
       <c r="H22">
-        <v>-0.01779828609096902</v>
+        <v>-0.07185234014502308</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1098,10 +1098,10 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>4.769545678384183</v>
+        <v>19.07818271353684</v>
       </c>
       <c r="C23">
-        <v>307</v>
+        <v>1228</v>
       </c>
       <c r="D23">
         <v>26</v>
@@ -1110,13 +1110,13 @@
         <v>825</v>
       </c>
       <c r="F23">
-        <v>281</v>
+        <v>1202</v>
       </c>
       <c r="G23">
-        <v>4.769545678384183</v>
+        <v>19.07818271353684</v>
       </c>
       <c r="H23">
-        <v>0.004848484848484848</v>
+        <v>0.02303030303030303</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1124,10 +1124,10 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>-35.29970888763336</v>
+        <v>-141.1988355505335</v>
       </c>
       <c r="C24">
-        <v>489</v>
+        <v>1956</v>
       </c>
       <c r="D24">
         <v>45</v>
@@ -1136,13 +1136,13 @@
         <v>1194</v>
       </c>
       <c r="F24">
-        <v>444</v>
+        <v>1911</v>
       </c>
       <c r="G24">
-        <v>-35.29970888763336</v>
+        <v>-141.1988355505335</v>
       </c>
       <c r="H24">
-        <v>-0.02931323283082077</v>
+        <v>-0.1180904522613065</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1150,10 +1150,10 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>5.235910872279911</v>
+        <v>20.9436434891197</v>
       </c>
       <c r="C25">
-        <v>352</v>
+        <v>1408</v>
       </c>
       <c r="D25">
         <v>12</v>
@@ -1162,13 +1162,13 @@
         <v>746</v>
       </c>
       <c r="F25">
-        <v>340</v>
+        <v>1396</v>
       </c>
       <c r="G25">
-        <v>5.235910872279911</v>
+        <v>20.9436434891197</v>
       </c>
       <c r="H25">
-        <v>0.006702412868632708</v>
+        <v>0.02680965147453083</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1176,10 +1176,10 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>-70.63207071307346</v>
+        <v>-282.5282828522926</v>
       </c>
       <c r="C26">
-        <v>735</v>
+        <v>2940</v>
       </c>
       <c r="D26">
         <v>68</v>
@@ -1188,13 +1188,13 @@
         <v>1458</v>
       </c>
       <c r="F26">
-        <v>667</v>
+        <v>2872</v>
       </c>
       <c r="G26">
-        <v>-70.63207071307346</v>
+        <v>-282.5282828522926</v>
       </c>
       <c r="H26">
-        <v>-0.04801097393689986</v>
+        <v>-0.1934156378600823</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1202,10 +1202,10 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>-14.81480351482496</v>
+        <v>-59.25921405929971</v>
       </c>
       <c r="C27">
-        <v>311</v>
+        <v>1244</v>
       </c>
       <c r="D27">
         <v>36</v>
@@ -1214,13 +1214,13 @@
         <v>745</v>
       </c>
       <c r="F27">
-        <v>275</v>
+        <v>1208</v>
       </c>
       <c r="G27">
-        <v>-14.81480351482496</v>
+        <v>-59.25921405929971</v>
       </c>
       <c r="H27">
-        <v>-0.01879194630872483</v>
+        <v>-0.07919463087248323</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1228,10 +1228,10 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>-56.72284817988363</v>
+        <v>-226.8913927195349</v>
       </c>
       <c r="C28">
-        <v>407</v>
+        <v>1628</v>
       </c>
       <c r="D28">
         <v>48</v>
@@ -1240,13 +1240,13 @@
         <v>805</v>
       </c>
       <c r="F28">
-        <v>359</v>
+        <v>1580</v>
       </c>
       <c r="G28">
-        <v>-56.72284817988363</v>
+        <v>-226.8913927195349</v>
       </c>
       <c r="H28">
-        <v>-0.06956521739130435</v>
+        <v>-0.2807453416149068</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1254,10 +1254,10 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>-112.1140192001013</v>
+        <v>-448.4560768004027</v>
       </c>
       <c r="C29">
-        <v>624</v>
+        <v>2496</v>
       </c>
       <c r="D29">
         <v>81</v>
@@ -1266,13 +1266,13 @@
         <v>1247</v>
       </c>
       <c r="F29">
-        <v>543</v>
+        <v>2415</v>
       </c>
       <c r="G29">
-        <v>-112.1140192001013</v>
+        <v>-448.4560768004027</v>
       </c>
       <c r="H29">
-        <v>-0.08981555733761026</v>
+        <v>-0.3592622293504411</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1280,10 +1280,10 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>47.89178163639323</v>
+        <v>191.5671265455729</v>
       </c>
       <c r="C30">
-        <v>1645</v>
+        <v>6580</v>
       </c>
       <c r="D30">
         <v>111</v>
@@ -1292,13 +1292,13 @@
         <v>4141</v>
       </c>
       <c r="F30">
-        <v>1534</v>
+        <v>6469</v>
       </c>
       <c r="G30">
-        <v>47.89178163639323</v>
+        <v>191.5671265455729</v>
       </c>
       <c r="H30">
-        <v>0.01134991547935281</v>
+        <v>0.04612412460758271</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1306,10 +1306,10 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>-21.48936315323328</v>
+        <v>-85.95745261293301</v>
       </c>
       <c r="C31">
-        <v>196</v>
+        <v>784</v>
       </c>
       <c r="D31">
         <v>24</v>
@@ -1318,13 +1318,13 @@
         <v>415</v>
       </c>
       <c r="F31">
-        <v>172</v>
+        <v>760</v>
       </c>
       <c r="G31">
-        <v>-21.48936315323328</v>
+        <v>-85.95745261293301</v>
       </c>
       <c r="H31">
-        <v>-0.05060240963855422</v>
+        <v>-0.2048192771084337</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1332,10 +1332,10 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>-25.66319643063951</v>
+        <v>-102.6527857225576</v>
       </c>
       <c r="C32">
-        <v>767</v>
+        <v>3068</v>
       </c>
       <c r="D32">
         <v>71</v>
@@ -1344,13 +1344,13 @@
         <v>2051</v>
       </c>
       <c r="F32">
-        <v>696</v>
+        <v>2997</v>
       </c>
       <c r="G32">
-        <v>-25.66319643063951</v>
+        <v>-102.6527857225576</v>
       </c>
       <c r="H32">
-        <v>-0.01218917601170161</v>
+        <v>-0.04973183812774257</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1358,10 +1358,10 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>-32.21704538325312</v>
+        <v>-128.8681815330119</v>
       </c>
       <c r="C33">
-        <v>429</v>
+        <v>1716</v>
       </c>
       <c r="D33">
         <v>65</v>
@@ -1370,13 +1370,13 @@
         <v>821</v>
       </c>
       <c r="F33">
-        <v>364</v>
+        <v>1651</v>
       </c>
       <c r="G33">
-        <v>-32.21704538325312</v>
+        <v>-128.8681815330119</v>
       </c>
       <c r="H33">
-        <v>-0.0389768574908648</v>
+        <v>-0.1559074299634592</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1384,10 +1384,10 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>-90.91604106998062</v>
+        <v>-363.6641642799185</v>
       </c>
       <c r="C34">
-        <v>725</v>
+        <v>2900</v>
       </c>
       <c r="D34">
         <v>35</v>
@@ -1396,13 +1396,13 @@
         <v>1666</v>
       </c>
       <c r="F34">
-        <v>690</v>
+        <v>2865</v>
       </c>
       <c r="G34">
-        <v>-90.91604106998062</v>
+        <v>-363.6641642799185</v>
       </c>
       <c r="H34">
-        <v>-0.05402160864345738</v>
+        <v>-0.2178871548619448</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1410,10 +1410,10 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>-31.08809340484496</v>
+        <v>-124.3523736193784</v>
       </c>
       <c r="C35">
-        <v>495</v>
+        <v>1980</v>
       </c>
       <c r="D35">
         <v>59</v>
@@ -1422,13 +1422,13 @@
         <v>1078</v>
       </c>
       <c r="F35">
-        <v>436</v>
+        <v>1921</v>
       </c>
       <c r="G35">
-        <v>-31.08809340484496</v>
+        <v>-124.3523736193784</v>
       </c>
       <c r="H35">
-        <v>-0.0287569573283859</v>
+        <v>-0.1150278293135436</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1436,10 +1436,10 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>14.61025160509103</v>
+        <v>58.44100642036419</v>
       </c>
       <c r="C36">
-        <v>423</v>
+        <v>1692</v>
       </c>
       <c r="D36">
         <v>51</v>
@@ -1448,13 +1448,13 @@
         <v>1191</v>
       </c>
       <c r="F36">
-        <v>372</v>
+        <v>1641</v>
       </c>
       <c r="G36">
-        <v>14.61025160509103</v>
+        <v>58.44100642036419</v>
       </c>
       <c r="H36">
-        <v>0.01175482787573468</v>
+        <v>0.04869857262804366</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1462,10 +1462,10 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>12.00563687872124</v>
+        <v>48.02254751488483</v>
       </c>
       <c r="C37">
-        <v>723</v>
+        <v>2892</v>
       </c>
       <c r="D37">
         <v>63</v>
@@ -1474,13 +1474,13 @@
         <v>1546</v>
       </c>
       <c r="F37">
-        <v>660</v>
+        <v>2829</v>
       </c>
       <c r="G37">
-        <v>12.00563687872124</v>
+        <v>48.02254751488483</v>
       </c>
       <c r="H37">
-        <v>0.007761966364812419</v>
+        <v>0.03104786545924968</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1488,10 +1488,10 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>-22.24308030939039</v>
+        <v>-88.97232123756133</v>
       </c>
       <c r="C38">
-        <v>184</v>
+        <v>736</v>
       </c>
       <c r="D38">
         <v>10</v>
@@ -1500,13 +1500,13 @@
         <v>408</v>
       </c>
       <c r="F38">
-        <v>174</v>
+        <v>726</v>
       </c>
       <c r="G38">
-        <v>-22.24308030939039</v>
+        <v>-88.97232123756133</v>
       </c>
       <c r="H38">
-        <v>-0.05392156862745098</v>
+        <v>-0.2156862745098039</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1514,10 +1514,10 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>-126.0295811591185</v>
+        <v>-504.1183246364689</v>
       </c>
       <c r="C39">
-        <v>830</v>
+        <v>3320</v>
       </c>
       <c r="D39">
         <v>54</v>
@@ -1526,13 +1526,13 @@
         <v>1795</v>
       </c>
       <c r="F39">
-        <v>776</v>
+        <v>3266</v>
       </c>
       <c r="G39">
-        <v>-126.0295811591185</v>
+        <v>-504.1183246364689</v>
       </c>
       <c r="H39">
-        <v>-0.0701949860724234</v>
+        <v>-0.2807799442896936</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1540,10 +1540,10 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>-90.53150483595621</v>
+        <v>-362.1260193438251</v>
       </c>
       <c r="C40">
-        <v>856</v>
+        <v>3424</v>
       </c>
       <c r="D40">
         <v>57</v>
@@ -1552,13 +1552,13 @@
         <v>2038</v>
       </c>
       <c r="F40">
-        <v>799</v>
+        <v>3367</v>
       </c>
       <c r="G40">
-        <v>-90.53150483595621</v>
+        <v>-362.1260193438251</v>
       </c>
       <c r="H40">
-        <v>-0.04416094210009813</v>
+        <v>-0.1776251226692836</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1566,10 +1566,10 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>-16.39065531181919</v>
+        <v>-65.5626212472756</v>
       </c>
       <c r="C41">
-        <v>535</v>
+        <v>2140</v>
       </c>
       <c r="D41">
         <v>57</v>
@@ -1578,13 +1578,13 @@
         <v>1157</v>
       </c>
       <c r="F41">
-        <v>478</v>
+        <v>2083</v>
       </c>
       <c r="G41">
-        <v>-16.39065531181919</v>
+        <v>-65.5626212472756</v>
       </c>
       <c r="H41">
-        <v>-0.01382886776145203</v>
+        <v>-0.05617977528089887</v>
       </c>
     </row>
   </sheetData>
